--- a/Datos_en base.xlsx
+++ b/Datos_en base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdiaz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdiaz\Desktop\SQL_Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E0010D-586E-1E42-9EFE-943DCFC58C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDAA805-CEFB-44FB-B6FE-9E3C5A61691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{65C2E170-929C-6349-88A3-D6ED8E0BB7FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65C2E170-929C-6349-88A3-D6ED8E0BB7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Bancos</t>
   </si>
@@ -180,6 +180,72 @@
   </si>
   <si>
     <t>libretas</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Sub-gerente</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Cajero</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>ninguno</t>
+  </si>
+  <si>
+    <t>Es el gerente</t>
+  </si>
+  <si>
+    <t>Es el sub geremte</t>
+  </si>
+  <si>
+    <t>es el cajero</t>
+  </si>
+  <si>
+    <t>Es el venderdor</t>
+  </si>
+  <si>
+    <t>Usuarios_Roles</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Usuario_id</t>
+  </si>
+  <si>
+    <t>Rol_id</t>
+  </si>
+  <si>
+    <t>El usuario carlos tiene los 4 roles</t>
+  </si>
+  <si>
+    <t>El usuario Jose tiene 2 roles</t>
+  </si>
+  <si>
+    <t>El usuario maria es vendedora</t>
+  </si>
+  <si>
+    <t>el usuario pedro es cajero</t>
   </si>
 </sst>
 </file>
@@ -267,9 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,9 +351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,34 +669,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7934B-9615-994D-B481-663578642C50}">
-  <dimension ref="B3:R41"/>
+  <dimension ref="B3:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.625" customWidth="1"/>
+    <col min="23" max="23" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="T3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -645,20 +722,32 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R4" s="3"/>
+      <c r="T4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -697,8 +786,20 @@
       <c r="R5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -735,8 +836,20 @@
       <c r="R6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="1">
+        <v>2</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -773,8 +886,20 @@
       <c r="R7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F8" s="1">
         <v>5</v>
       </c>
@@ -802,8 +927,20 @@
       <c r="R8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>6</v>
       </c>
@@ -832,7 +969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F10" s="1">
         <v>7</v>
       </c>
@@ -855,7 +992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>8</v>
       </c>
@@ -885,8 +1022,13 @@
       <c r="R11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <v>9</v>
       </c>
@@ -914,8 +1056,17 @@
       <c r="R12" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <v>10</v>
       </c>
@@ -943,8 +1094,17 @@
       <c r="R13" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -957,8 +1117,17 @@
       <c r="R14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
@@ -973,19 +1142,59 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -1001,14 +1210,23 @@
       <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <v>800</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="2">
         <v>1900</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -1024,10 +1242,19 @@
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="T20">
+        <v>8</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -1043,10 +1270,10 @@
       <c r="F21" s="1">
         <v>6</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -1062,19 +1289,19 @@
       <c r="F22" s="1">
         <v>6</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>5</v>
       </c>
@@ -1090,12 +1317,12 @@
       <c r="F24" s="1">
         <v>8</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>600</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>6</v>
       </c>
@@ -1111,10 +1338,10 @@
       <c r="F25" s="1">
         <v>8</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>7</v>
       </c>
@@ -1130,19 +1357,25 @@
       <c r="F26" s="1">
         <v>8</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="T26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+      <c r="T27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>8</v>
       </c>
@@ -1158,12 +1391,15 @@
       <c r="F28" s="1">
         <v>9</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>500</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>9</v>
       </c>
@@ -1179,10 +1415,13 @@
       <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="T29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>10</v>
       </c>
@@ -1198,10 +1437,10 @@
       <c r="F30" s="1">
         <v>9</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1210,7 +1449,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1219,7 +1458,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>11</v>
       </c>
@@ -1235,14 +1474,14 @@
       <c r="F33" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>12</v>
       </c>
@@ -1258,10 +1497,10 @@
       <c r="F34" s="1">
         <v>7</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>13</v>
       </c>
@@ -1277,10 +1516,10 @@
       <c r="F35" s="1">
         <v>8</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>14</v>
       </c>
@@ -1296,10 +1535,10 @@
       <c r="F36" s="1">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1308,7 +1547,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>15</v>
       </c>
@@ -1324,14 +1563,14 @@
       <c r="F38" s="1">
         <v>10</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="3">
         <v>1100</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="2">
         <v>1100</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>16</v>
       </c>
@@ -1347,10 +1586,10 @@
       <c r="F39" s="1">
         <v>10</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>17</v>
       </c>
@@ -1366,10 +1605,10 @@
       <c r="F40" s="1">
         <v>10</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>18</v>
       </c>
@@ -1385,24 +1624,26 @@
       <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B18:H18"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G33:G36"/>
     <mergeCell ref="H19:H30"/>
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="G38:G41"/>
     <mergeCell ref="H38:H41"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G19:G22"/>
     <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
